--- a/OpenMindat_Schema_JSON-LD.xlsx
+++ b/OpenMindat_Schema_JSON-LD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiangque/Documents/GitHub/OpenMindat/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67308F04-6888-3744-8A43-436A3D7A0148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="16100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="context" sheetId="2" r:id="rId1"/>
@@ -956,14 +962,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,341 +976,26 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1318,314 +1003,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1883,93 +1292,93 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.703125" customWidth="1"/>
-    <col min="2" max="2" width="23.953125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://mindat.org/"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://w3id.org/gso/mineral/"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{0476F60A-08CF-024E-824D-07FCCC5C7580}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{97955502-035D-1A41-9CA0-7026E331E328}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.234375" customWidth="1"/>
-    <col min="2" max="2" width="24.3515625" customWidth="1"/>
-    <col min="3" max="3" width="27.078125" customWidth="1"/>
-    <col min="4" max="4" width="25.515625" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1986,7 +1395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2003,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2020,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2037,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2054,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2071,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2088,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2105,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2122,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2139,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2156,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2173,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2190,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2207,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2224,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2241,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2258,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2275,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -2292,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2309,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2326,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -2343,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -2360,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2377,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -2394,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -2411,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2428,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2445,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -2462,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2479,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -2496,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2513,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2530,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -2547,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2564,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -2581,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2598,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2615,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -2632,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -2649,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -2666,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -2683,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -2700,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -2717,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -2734,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -2751,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2768,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -2785,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -2802,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -2819,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -2836,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -2853,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -2870,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -2887,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -2904,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -2921,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -2938,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -2955,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -2972,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -2989,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3006,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -3023,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -3040,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -3057,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -3074,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -3091,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -3108,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -3125,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>150</v>
       </c>
@@ -3142,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -3159,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>154</v>
       </c>
@@ -3176,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -3193,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -3210,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -3227,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -3244,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -3261,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -3278,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>168</v>
       </c>
@@ -3295,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -3312,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>172</v>
       </c>
@@ -3329,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>174</v>
       </c>
@@ -3346,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -3363,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>178</v>
       </c>
@@ -3380,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>180</v>
       </c>
@@ -3397,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -3414,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>184</v>
       </c>
@@ -3431,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>186</v>
       </c>
@@ -3448,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -3465,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -3482,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -3499,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>194</v>
       </c>
@@ -3516,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>196</v>
       </c>
@@ -3533,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -3550,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>200</v>
       </c>
@@ -3567,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>202</v>
       </c>
@@ -3584,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -3601,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -3618,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -3635,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>210</v>
       </c>
@@ -3652,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>212</v>
       </c>
@@ -3669,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>214</v>
       </c>
@@ -3686,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -3703,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>218</v>
       </c>
@@ -3720,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -3737,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>222</v>
       </c>
@@ -3754,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>224</v>
       </c>
@@ -3771,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>226</v>
       </c>
@@ -3788,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>228</v>
       </c>
@@ -3805,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>230</v>
       </c>
@@ -3822,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>232</v>
       </c>
@@ -3839,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -3856,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>236</v>
       </c>
@@ -3873,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -3890,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>240</v>
       </c>
@@ -3907,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>242</v>
       </c>
@@ -3924,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -3941,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>246</v>
       </c>
@@ -3958,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>58</v>
       </c>
@@ -3975,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>248</v>
       </c>
@@ -3992,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -4009,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>252</v>
       </c>
@@ -4026,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>254</v>
       </c>
@@ -4043,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>256</v>
       </c>
@@ -4060,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>258</v>
       </c>
@@ -4077,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>260</v>
       </c>
@@ -4094,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>262</v>
       </c>
@@ -4111,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>264</v>
       </c>
@@ -4128,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>266</v>
       </c>
@@ -4145,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>268</v>
       </c>
@@ -4162,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>270</v>
       </c>
@@ -4179,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>272</v>
       </c>
@@ -4196,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>274</v>
       </c>
@@ -4213,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>276</v>
       </c>
@@ -4230,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>278</v>
       </c>
@@ -4247,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>280</v>
       </c>
@@ -4264,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>282</v>
       </c>
@@ -4281,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>284</v>
       </c>
@@ -4298,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>286</v>
       </c>
@@ -4315,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -4332,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>290</v>
       </c>
@@ -4349,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>292</v>
       </c>
@@ -4366,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>294</v>
       </c>
@@ -4383,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>296</v>
       </c>
@@ -4400,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>298</v>
       </c>
@@ -4417,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>300</v>
       </c>
@@ -4434,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>302</v>
       </c>
@@ -4451,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>304</v>
       </c>
@@ -4468,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>306</v>
       </c>
@@ -4485,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>308</v>
       </c>
@@ -4502,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>310</v>
       </c>
@@ -4521,6 +3930,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>